--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H2">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I2">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J2">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N2">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O2">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P2">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q2">
-        <v>7.487400974976778</v>
+        <v>12.434303682752</v>
       </c>
       <c r="R2">
-        <v>67.386608774791</v>
+        <v>111.908733144768</v>
       </c>
       <c r="S2">
-        <v>0.00701829712993167</v>
+        <v>0.009255631044100389</v>
       </c>
       <c r="T2">
-        <v>0.007018297129931668</v>
+        <v>0.009255631044100389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H3">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I3">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J3">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>6.245209</v>
       </c>
       <c r="O3">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P3">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q3">
-        <v>44.54180137104344</v>
+        <v>32.253182033812</v>
       </c>
       <c r="R3">
-        <v>400.876212339391</v>
+        <v>290.2786383043079</v>
       </c>
       <c r="S3">
-        <v>0.04175114940005605</v>
+        <v>0.02400806354096549</v>
       </c>
       <c r="T3">
-        <v>0.04175114940005602</v>
+        <v>0.02400806354096549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H4">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I4">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J4">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N4">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O4">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P4">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q4">
-        <v>4.425252827837221</v>
+        <v>5.58914220364</v>
       </c>
       <c r="R4">
-        <v>39.82727545053499</v>
+        <v>50.30227983275999</v>
       </c>
       <c r="S4">
-        <v>0.004147999996878531</v>
+        <v>0.004160348613783636</v>
       </c>
       <c r="T4">
-        <v>0.004147999996878529</v>
+        <v>0.004160348613783636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H5">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I5">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J5">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N5">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O5">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P5">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q5">
-        <v>20.49939095368655</v>
+        <v>21.682006662272</v>
       </c>
       <c r="R5">
-        <v>184.494518583179</v>
+        <v>195.138059960448</v>
       </c>
       <c r="S5">
-        <v>0.01921505435282926</v>
+        <v>0.01613927559450606</v>
       </c>
       <c r="T5">
-        <v>0.01921505435282925</v>
+        <v>0.01613927559450606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J6">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N6">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O6">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P6">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q6">
-        <v>45.795521960862</v>
+        <v>105.028847710752</v>
       </c>
       <c r="R6">
-        <v>412.159697647758</v>
+        <v>945.259629396768</v>
       </c>
       <c r="S6">
-        <v>0.0429263213518009</v>
+        <v>0.07817954975204355</v>
       </c>
       <c r="T6">
-        <v>0.04292632135180089</v>
+        <v>0.07817954975204355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J7">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>6.245209</v>
       </c>
       <c r="O7">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P7">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q7">
         <v>272.432991058062</v>
@@ -883,10 +883,10 @@
         <v>2451.896919522558</v>
       </c>
       <c r="S7">
-        <v>0.2553644028991551</v>
+        <v>0.2027889388749469</v>
       </c>
       <c r="T7">
-        <v>0.2553644028991551</v>
+        <v>0.2027889388749469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>392.604462</v>
       </c>
       <c r="I8">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J8">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N8">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O8">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P8">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q8">
-        <v>27.06636972387</v>
+        <v>47.20981410114</v>
       </c>
       <c r="R8">
-        <v>243.59732751483</v>
+        <v>424.88832691026</v>
       </c>
       <c r="S8">
-        <v>0.02537059596321345</v>
+        <v>0.03514122158580022</v>
       </c>
       <c r="T8">
-        <v>0.02537059596321344</v>
+        <v>0.03514122158580022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>392.604462</v>
       </c>
       <c r="I9">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J9">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N9">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O9">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P9">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q9">
-        <v>125.381332152678</v>
+        <v>183.141431470272</v>
       </c>
       <c r="R9">
-        <v>1128.431989374102</v>
+        <v>1648.272883232448</v>
       </c>
       <c r="S9">
-        <v>0.1175258873586477</v>
+        <v>0.1363236383657369</v>
       </c>
       <c r="T9">
-        <v>0.1175258873586476</v>
+        <v>0.1363236383657369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H10">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N10">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O10">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P10">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q10">
-        <v>24.26334354593178</v>
+        <v>53.63892011635733</v>
       </c>
       <c r="R10">
-        <v>218.370091913386</v>
+        <v>482.750281047216</v>
       </c>
       <c r="S10">
-        <v>0.02274318617903153</v>
+        <v>0.03992680787502684</v>
       </c>
       <c r="T10">
-        <v>0.02274318617903153</v>
+        <v>0.03992680787502684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H11">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I11">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J11">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>6.245209</v>
       </c>
       <c r="O11">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P11">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q11">
-        <v>144.3402099649984</v>
+        <v>139.1333120655356</v>
       </c>
       <c r="R11">
-        <v>1299.061889684986</v>
+        <v>1252.199808589821</v>
       </c>
       <c r="S11">
-        <v>0.1352969454576626</v>
+        <v>0.1035656386781496</v>
       </c>
       <c r="T11">
-        <v>0.1352969454576626</v>
+        <v>0.1035656386781496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H12">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I12">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J12">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N12">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O12">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P12">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q12">
-        <v>14.34028042551222</v>
+        <v>24.11036112909667</v>
       </c>
       <c r="R12">
-        <v>129.06252382961</v>
+        <v>216.99325016187</v>
       </c>
       <c r="S12">
-        <v>0.01344182704908493</v>
+        <v>0.01794685192227416</v>
       </c>
       <c r="T12">
-        <v>0.01344182704908493</v>
+        <v>0.01794685192227416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H13">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I13">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J13">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N13">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O13">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P13">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q13">
-        <v>66.42942816258154</v>
+        <v>93.53152802059735</v>
       </c>
       <c r="R13">
-        <v>597.864853463234</v>
+        <v>841.783752185376</v>
       </c>
       <c r="S13">
-        <v>0.06226746324586872</v>
+        <v>0.06962137458090362</v>
       </c>
       <c r="T13">
-        <v>0.06226746324586871</v>
+        <v>0.06962137458090362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H14">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I14">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J14">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3499363333333333</v>
+        <v>0.8025546666666666</v>
       </c>
       <c r="N14">
-        <v>1.049809</v>
+        <v>2.407664</v>
       </c>
       <c r="O14">
-        <v>0.09729729379045061</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="P14">
-        <v>0.0972972937904506</v>
+        <v>0.1727979380778872</v>
       </c>
       <c r="Q14">
-        <v>26.25439041579722</v>
+        <v>61.04007283192</v>
       </c>
       <c r="R14">
-        <v>236.289513742175</v>
+        <v>549.36065548728</v>
       </c>
       <c r="S14">
-        <v>0.02460948912968651</v>
+        <v>0.04543594940671642</v>
       </c>
       <c r="T14">
-        <v>0.02460948912968651</v>
+        <v>0.04543594940671643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H15">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I15">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J15">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>6.245209</v>
       </c>
       <c r="O15">
-        <v>0.5788118932641712</v>
+        <v>0.4482183718598042</v>
       </c>
       <c r="P15">
-        <v>0.578811893264171</v>
+        <v>0.4482183718598043</v>
       </c>
       <c r="Q15">
-        <v>156.1847491441305</v>
+        <v>158.331067877645</v>
       </c>
       <c r="R15">
-        <v>1405.662742297175</v>
+        <v>1424.979610898805</v>
       </c>
       <c r="S15">
-        <v>0.1463993955072974</v>
+        <v>0.1178557307657423</v>
       </c>
       <c r="T15">
-        <v>0.1463993955072974</v>
+        <v>0.1178557307657423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H16">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I16">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J16">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1423,28 +1423,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2068216666666667</v>
+        <v>0.3607433333333334</v>
       </c>
       <c r="N16">
-        <v>0.6204649999999999</v>
+        <v>1.08223</v>
       </c>
       <c r="O16">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331675</v>
       </c>
       <c r="P16">
-        <v>0.05750528466767948</v>
+        <v>0.07767159891331676</v>
       </c>
       <c r="Q16">
-        <v>15.51704200415278</v>
+        <v>27.43713326315</v>
       </c>
       <c r="R16">
-        <v>139.653378037375</v>
+        <v>246.93419936835</v>
       </c>
       <c r="S16">
-        <v>0.01454486165850258</v>
+        <v>0.02042317679145874</v>
       </c>
       <c r="T16">
-        <v>0.01454486165850258</v>
+        <v>0.02042317679145874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H17">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I17">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J17">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.9580736666666666</v>
+        <v>1.399434666666667</v>
       </c>
       <c r="N17">
-        <v>2.874221</v>
+        <v>4.198304</v>
       </c>
       <c r="O17">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="P17">
-        <v>0.2663855282776988</v>
+        <v>0.3013120911489918</v>
       </c>
       <c r="Q17">
-        <v>71.88061854611944</v>
+        <v>106.43710332112</v>
       </c>
       <c r="R17">
-        <v>646.925566915075</v>
+        <v>957.9339298900801</v>
       </c>
       <c r="S17">
-        <v>0.06737712332035321</v>
+        <v>0.07922780260784529</v>
       </c>
       <c r="T17">
-        <v>0.0673771233203532</v>
+        <v>0.07922780260784529</v>
       </c>
     </row>
   </sheetData>
